--- a/data/publications/orcid/export_to_manual/Akademia_Ekonomiczno-Humanistyczna_w_Warszawie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Akademia_Ekonomiczno-Humanistyczna_w_Warszawie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1376 +436,1492 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Witold Dobrołowicz</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8620-0369</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>O umyśle menedżera w świetle nowych testów</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Humanizacja Pracy  2018, nr. 4, 123-139;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Witold_Dobrołowicz_2</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Witold Dobrołowicz</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8620-0369</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>O umyśle menedżera w świetle nowych testów</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Humanizacja Pracy</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Witold_Dobrołowicz_3</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Witold Dobrołowicz</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8620-0369</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MOTYWY AKTYWNOŚCI RACJONALIZATORSKO-WYNALAZCZEJ PRACOWNIKÓW PRZEMYSŁU</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Witold_Dobrołowicz_4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Witold Dobrołowicz</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8620-0369</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MOŻLIWOŚCI TWÓRCZE DZIECI I MŁODZIEŻY</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Witold_Dobrołowicz_5</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Witold Dobrołowicz</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8620-0369</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Wybrane problemy psychologii twórczości naukowej,„</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Kiele ckie Studia Psychologiczne</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Witold_Dobrołowicz_6</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aggressive behaviors in patients with psychiatric disorders,Zachowania agresywne ze strony pacjentów z zaburzeniami psychicznymi</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_4</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>32</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Cognitive screening scale for schizophrenia (CSSS): Diagnostic efficacy in group of subjects with special rehabilitational needs,Przesiewowa Skala Funkcji Poznawczych w Schizofrenii (CSSS) - Wartość diagnostyczna w grupie osób ze specjalnymi potrzebami rehabilitacyjnymi</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_8</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Considerations of suicidal behaviour in psychiatrically hospitalised patients. A psychological portrait of a suicidal female and male</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_9</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Not only „neurosis”. The level of reported pathological worry versus reported generalized anxiety sympthoms, and primary care consultations. Which phenomenon is more informative?,Nie tylko „nerwica”. Poziom patologicznego zamartwiania i objawy lęku uogólnionego w populacji a skala zgłoszeń do lekarza podstawowej opieki zdrowotnej. Które zjawisko wyjaśnia więcej?</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_12</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>41</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Tools for the assessment of executive functions in patients suffering from schizophrenia,Narzedzia do oceny funkcji wykonawczych u pacjentów chorujacych na schizofrenie</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_17</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>43</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Diagnostic accuracy of the Verbal Suicide Scale (VSS) in the group of psychiatrically hospitalised patients</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_19</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>44</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Jacek Janusz Gierus</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2532-3327</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Epidemiology of suicidal thoughts and behaviours in patients of the Clinic of Psychiatry at the Faculty of Health Sciences of Medical University of Warsaw (April 2016-March 2017),Epidemiologia zachowań samobójczych pacjentów Kliniki Psychiatrycznej Wydziału Nauki o Zdrowiu Warszawskiego Uniwersytetu Medycznego (kwiecień 2016-marzec 2017 roku)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Psychiatria</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Jacek_Janusz_Gierus_20</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>49</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Ryszard Kościelak</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0977-2288</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Self-image and methods of coping with stress in women practising dentistry</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2018-01-10</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Polish Journal of Social Sciences</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Ryszard_Kościelak_1</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>50</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Ryszard Kościelak</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0977-2288</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Subjective health resources in women suffering from simple obesity</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017-03-17</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Polish Journal of Social Sciences</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Ryszard_Kościelak_2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>78</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Mieczysław Plopa</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5278-149X</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>The quality of parental relationships and dispositional empathy as predictors of satisfaction during the transition to marriage</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Journal of Family Studies</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Mieczysław_Plopa_2</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>81</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Mieczysław Plopa</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5278-149X</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Dynamika związku małżeńskiego jako predyktor sytuacji rozwodowej</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mieczysław_Plopa_5</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>82</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Mieczysław Plopa</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5278-149X</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Kwestionariusz Satysfakcji Seksualnej</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Mieczysław_Plopa_6</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>83</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Mieczysław Plopa</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5278-149X</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Bullying at Work and Mental Health: The Moderating Role of Demographic and Occupational Variables</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Mieczysław_Plopa_7</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>84</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Mieczysław Plopa</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5278-149X</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Cohabitation or marriage? Psychosocial perspective</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Mieczysław_Plopa_8</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>85</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Mieczysław Plopa</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5278-149X</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>O WRODZONEJ POTRZEBIE DÓSWIADCZANIA PODMIOTOWÓSCI I MIŁÓSCI: PERSPEKTYWA TEORII PRZYWIĄZANIA</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Mieczysław_Plopa_9</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>86</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Psychometric Evaluation of the Polish Version of the Satisfaction with Family Life Scale</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2021-12-22</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Advances in Cognitive Psychology</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_1</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>91</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Doświadczanie stresu i odnajdywanie pozytywnych aspektów rodzicielstwa w kontekście wychowywania dziecka z niepełnosprawnością intelektualną</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Dziecko Krzywdzone</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_6</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>94</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Dobrostan psychologiczny i jego pomiar za pomocą Oksfordzkiego Kwestionariusza Szczęścia</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne-Psychological Journal</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_9</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>95</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Ego-resiliency jako zasób osobisty – narzędzie pomiaru i jego wykorzystanie w badaniach interdyscyplinarnych</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne-Psychological Journal</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_10</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>96</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Fascynacja dzieci Internetem a monitorowanie ich aktywności online</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Politechniki Śl., Organizacja i Zarządzanie. [Scientific Papers of Silesian University of Technolgy. Organization and Management Series]</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_11</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>97</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Obraz ciała a samoocena kobiet z rakiem piersi – rola akceptacji ciała</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Psychoonkologia</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_12</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>99</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Przekonania osób rozwiedzionych o szansach powodzenia powtórnego małżeństwa i rodziny zrekonstruowanej</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Zeszyty Naukowe Politechniki Śl., Organizacja i Zarządzanie. [Scientific Papers of Silesian University of Technolgy. Organization and Management Series]</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_14</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>100</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Sexual activity and sexual satisfaction of women in low-risk and high-risk pregnancy</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Ginekologia i Położnictwo Medical Project</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_15</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>101</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Ego-resiliency and parental satisfaction among parents of children with Down syndrome</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>The New Educational Review</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_16</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>102</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Niechęć do uczestniczenia w procesie psychoterapii i mediacjach rodzinnych – opór i jego przyczyny</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Chowanna</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_17</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>104</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Polska adaptacja Wielowymiarowej Skali Spostrzeganego Wsparcia Społecznego</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_19</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>105</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Skala Satysfakcji Seksualnej Kobiet Cindy Meston i Paula Trapnella – właściwości psychometryczne polskiej wersji narzędzia</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Polskie Forum Psychologiczne</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_20</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>107</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>HANNA PRZYBYŁA-BASISTA</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6839-7305</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Zmieniające się rodziny w zmieniającym się świecie a wyzwania dla współpracy rodzicielskiej</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Międzynarodowe Studia Społeczno-Humanistyczne HUMANUM</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>HANNA_PRZYBYŁA-BASISTA_22</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>108</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Ryszard Stachowski</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9589-8447</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>(Nie) zapomniana frenologia</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Horyzonty Psychologii i Nauk o Człowieku</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Ryszard_Stachowski_1</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>112</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Ewa Stanisławiak</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3372-8455</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Five-factor personality model versus affective temperaments: a study in a nonclinical Polish sample</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Ewa_Stanisławiak_4</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>113</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Ewa Stanisławiak</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3372-8455</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Regulative Theory of Temperament versus affective temperaments measured by the Temperament Evaluation of Memphis, Pisa, Paris and San Diego Auto-Questionnaire (TEMPS-A): A study in a non-clinical Polish sample</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Ewa_Stanisławiak_5</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>124</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Kinga Wytrychiewicz</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8236-4363</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Stimulus‐seeking in rats is accompanied by increased c‐Fos expression in hippocampal CA1 as well as short 22 kHz and flat 50 kHz calls</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2019-06</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Acta Neurobiologiae Experimentalis</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Kinga_Wytrychiewicz_8</t>
         </is>
